--- a/Code/Results/Cases/Case_4_246/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_246/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.646505408712869</v>
+        <v>1.256161925124957</v>
       </c>
       <c r="C2">
-        <v>0.477871348636711</v>
+        <v>0.2346248611648036</v>
       </c>
       <c r="D2">
-        <v>0.1981329975010198</v>
+        <v>0.07810553557496291</v>
       </c>
       <c r="E2">
-        <v>0.04342941327917771</v>
+        <v>0.104616351433313</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.0008022125293077813</v>
+        <v>0.002472023795564883</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -451,16 +451,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.1489404377763037</v>
+        <v>0.1906439604913075</v>
       </c>
       <c r="M2">
-        <v>0.4350571576929241</v>
+        <v>0.2632552252174563</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>2.745308230948524</v>
+        <v>4.235721211673194</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.296742773409562</v>
+        <v>1.156852820408346</v>
       </c>
       <c r="C3">
-        <v>0.4337085850345375</v>
+        <v>0.2197061655329833</v>
       </c>
       <c r="D3">
-        <v>0.1714964433383557</v>
+        <v>0.07090213355218111</v>
       </c>
       <c r="E3">
-        <v>0.04512315401201561</v>
+        <v>0.1055377259485465</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.0008079200493566113</v>
+        <v>0.002475713788156935</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -498,16 +498,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.1350192725425146</v>
+        <v>0.1881033970932435</v>
       </c>
       <c r="M3">
-        <v>0.3788581609227819</v>
+        <v>0.248139918629434</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>2.604701317611273</v>
+        <v>4.240221910131282</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.083211832537813</v>
+        <v>1.096187617494081</v>
       </c>
       <c r="C4">
-        <v>0.4066044275977561</v>
+        <v>0.2104786647053061</v>
       </c>
       <c r="D4">
-        <v>0.1553470789919658</v>
+        <v>0.06651650428111111</v>
       </c>
       <c r="E4">
-        <v>0.04621197426787393</v>
+        <v>0.1061351793882015</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.0008115321206642545</v>
+        <v>0.002478100188064472</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -545,16 +545,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.1266617605186937</v>
+        <v>0.186637737513216</v>
       </c>
       <c r="M4">
-        <v>0.3446257278181051</v>
+        <v>0.2389541189392261</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>2.525638920497698</v>
+        <v>4.245968564097893</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.996450033289079</v>
+        <v>1.071545227969978</v>
       </c>
       <c r="C5">
-        <v>0.3955570912935684</v>
+        <v>0.2067016074725814</v>
       </c>
       <c r="D5">
-        <v>0.1488112252748408</v>
+        <v>0.06473863993083739</v>
       </c>
       <c r="E5">
-        <v>0.04666784086856102</v>
+        <v>0.1063866352511141</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.0008130318648436607</v>
+        <v>0.002479103119353699</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -592,16 +592,16 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.1233001345272413</v>
+        <v>0.1860641951582522</v>
       </c>
       <c r="M5">
-        <v>0.3307350216272127</v>
+        <v>0.2352348752442737</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>2.495129215713803</v>
+        <v>4.249058840838387</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.982057118619821</v>
+        <v>1.067458188885723</v>
       </c>
       <c r="C6">
-        <v>0.3937224146510516</v>
+        <v>0.2060734216453</v>
       </c>
       <c r="D6">
-        <v>0.147728494427966</v>
+        <v>0.06444398774344506</v>
       </c>
       <c r="E6">
-        <v>0.04674426835704304</v>
+        <v>0.106428872130132</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.0008132825956199983</v>
+        <v>0.002479271497478326</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -639,16 +639,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.1227445009982375</v>
+        <v>0.185970392597568</v>
       </c>
       <c r="M6">
-        <v>0.3284317928307843</v>
+        <v>0.2346187540856306</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>2.490162961931219</v>
+        <v>4.249617135365639</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.082040773860285</v>
+        <v>1.095854959739199</v>
       </c>
       <c r="C7">
-        <v>0.4064554547039165</v>
+        <v>0.2104277936965104</v>
       </c>
       <c r="D7">
-        <v>0.1552587597649477</v>
+        <v>0.06649248974386524</v>
       </c>
       <c r="E7">
-        <v>0.04621807315130577</v>
+        <v>0.1061385382490986</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.0008115522332161714</v>
+        <v>0.002478113590480446</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -686,16 +686,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.1266162504829822</v>
+        <v>0.1866299064226666</v>
       </c>
       <c r="M7">
-        <v>0.3444381650657675</v>
+        <v>0.2389038623750466</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>2.52522068927064</v>
+        <v>4.246007212382636</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.525619166239892</v>
+        <v>1.221856145922629</v>
       </c>
       <c r="C8">
-        <v>0.4626382880885842</v>
+        <v>0.2294949682484173</v>
       </c>
       <c r="D8">
-        <v>0.1889019631881439</v>
+        <v>0.07561402404675732</v>
       </c>
       <c r="E8">
-        <v>0.04400320007281133</v>
+        <v>0.1049274633929027</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.0008041585973278071</v>
+        <v>0.002473271105165196</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -733,16 +733,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.1440986616036213</v>
+        <v>0.1897484243759493</v>
       </c>
       <c r="M8">
-        <v>0.4156168764281745</v>
+        <v>0.2580238163529103</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>2.695243613100331</v>
+        <v>4.236652863790624</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.407877695135539</v>
+        <v>1.471382804183861</v>
       </c>
       <c r="C9">
-        <v>0.5731680346749215</v>
+        <v>0.2663458279110671</v>
       </c>
       <c r="D9">
-        <v>0.2568277967237975</v>
+        <v>0.09380091705030225</v>
       </c>
       <c r="E9">
-        <v>0.0400531712661184</v>
+        <v>0.1028037576126187</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.0007904782242222628</v>
+        <v>0.002464728573101022</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -780,16 +780,16 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.1800705579527673</v>
+        <v>0.1966112207210813</v>
       </c>
       <c r="M9">
-        <v>0.5578465899184692</v>
+        <v>0.2962682912531349</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>3.092156674170894</v>
+        <v>4.242060850651342</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.067756332841327</v>
+        <v>1.656178493525317</v>
       </c>
       <c r="C10">
-        <v>0.6549962729657466</v>
+        <v>0.2930865997379897</v>
       </c>
       <c r="D10">
-        <v>0.3084086758379954</v>
+        <v>0.1073519963765079</v>
       </c>
       <c r="E10">
-        <v>0.03739907689678124</v>
+        <v>0.1013958593575999</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.0007808728325963837</v>
+        <v>0.00245902757286694</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -827,16 +827,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.2078023576152503</v>
+        <v>0.2021091352093833</v>
       </c>
       <c r="M10">
-        <v>0.6646839814225132</v>
+        <v>0.3248218966814918</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>3.431258741272302</v>
+        <v>4.260634548465845</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.371508681707951</v>
+        <v>1.740563399697692</v>
       </c>
       <c r="C11">
-        <v>0.6924585501236606</v>
+        <v>0.3051785082445804</v>
       </c>
       <c r="D11">
-        <v>0.3323573197159106</v>
+        <v>0.1135592973275266</v>
       </c>
       <c r="E11">
-        <v>0.03624746684769808</v>
+        <v>0.1007882982870888</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.0007765868630830103</v>
+        <v>0.002456557635080697</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.2207684172476831</v>
+        <v>0.2047093603541299</v>
       </c>
       <c r="M11">
-        <v>0.7139748293730719</v>
+        <v>0.3379103786546906</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>3.597998785994378</v>
+        <v>4.272281078242713</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.48713832207477</v>
+        <v>1.772563234300208</v>
       </c>
       <c r="C12">
-        <v>0.7066880952038161</v>
+        <v>0.3097468440111015</v>
       </c>
       <c r="D12">
-        <v>0.341506594982846</v>
+        <v>0.1159160915609192</v>
       </c>
       <c r="E12">
-        <v>0.0358195809402917</v>
+        <v>0.1005629501795818</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.0007749747193046689</v>
+        <v>0.002455639990721154</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -921,16 +921,16 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.2257349009292113</v>
+        <v>0.2057082544896787</v>
       </c>
       <c r="M12">
-        <v>0.7327555970617254</v>
+        <v>0.3428808442054319</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>3.663133546294716</v>
+        <v>4.277153087318936</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.462206934159155</v>
+        <v>1.76566950674794</v>
       </c>
       <c r="C13">
-        <v>0.703621422325682</v>
+        <v>0.3087634455687294</v>
       </c>
       <c r="D13">
-        <v>0.3395323739639338</v>
+        <v>0.1154082359359165</v>
       </c>
       <c r="E13">
-        <v>0.03591136583274446</v>
+        <v>0.1006112730488561</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.0007753214598223979</v>
+        <v>0.002455836837462866</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -968,16 +968,16 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.2246626631054625</v>
+        <v>0.2054924914979779</v>
       </c>
       <c r="M13">
-        <v>0.7287054161425601</v>
+        <v>0.3418097387408849</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>3.649013548766391</v>
+        <v>4.276083246605424</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.381008914309291</v>
+        <v>1.743195146949063</v>
       </c>
       <c r="C14">
-        <v>0.6936282979270629</v>
+        <v>0.3055545615149811</v>
       </c>
       <c r="D14">
-        <v>0.3331083583166077</v>
+        <v>0.1137530671067992</v>
       </c>
       <c r="E14">
-        <v>0.03621209887919663</v>
+        <v>0.1007696641748427</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.0007764540203865897</v>
+        <v>0.002456481786339292</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1015,16 +1015,16 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.221175843245291</v>
+        <v>0.2047912545853734</v>
       </c>
       <c r="M14">
-        <v>0.7155175235343805</v>
+        <v>0.3383190192123848</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>3.603316290262399</v>
+        <v>4.27267263655807</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.331354477995603</v>
+        <v>1.729434797671217</v>
       </c>
       <c r="C15">
-        <v>0.6875131593306207</v>
+        <v>0.3035876410520757</v>
       </c>
       <c r="D15">
-        <v>0.3291842776143312</v>
+        <v>0.1127400408327759</v>
       </c>
       <c r="E15">
-        <v>0.03639738071969401</v>
+        <v>0.1008672980097693</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.0007771491245631178</v>
+        <v>0.002456879134488276</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.2190476160653532</v>
+        <v>0.2043635813341496</v>
       </c>
       <c r="M15">
-        <v>0.7074550928719461</v>
+        <v>0.3361826902927447</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>3.575591310912841</v>
+        <v>4.270643727300069</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.047984893241676</v>
+        <v>1.650670105429015</v>
       </c>
       <c r="C16">
-        <v>0.6525535783477778</v>
+        <v>0.2922948897420383</v>
       </c>
       <c r="D16">
-        <v>0.3068542210687468</v>
+        <v>0.1069472022103355</v>
       </c>
       <c r="E16">
-        <v>0.03747547483752633</v>
+        <v>0.1014362261635195</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.0007811545157957558</v>
+        <v>0.002459191466179742</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1109,16 +1109,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.2069625599517053</v>
+        <v>0.2019411988265176</v>
       </c>
       <c r="M16">
-        <v>0.661477940417889</v>
+        <v>0.3239685199628966</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>3.420629627207092</v>
+        <v>4.259937924811425</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.875123842282505</v>
+        <v>1.602431886155216</v>
       </c>
       <c r="C17">
-        <v>0.6311742293070211</v>
+        <v>0.2853484371215416</v>
       </c>
       <c r="D17">
-        <v>0.2932868601015599</v>
+        <v>0.1034045020651888</v>
       </c>
       <c r="E17">
-        <v>0.03815125850698919</v>
+        <v>0.1017936651123303</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.0007836323065371076</v>
+        <v>0.0024606415690749</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1156,16 +1156,16 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.1996427530706342</v>
+        <v>0.2004805384645039</v>
       </c>
       <c r="M17">
-        <v>0.6334601970287181</v>
+        <v>0.316500856853331</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>3.328898095119911</v>
+        <v>4.25419055009317</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.776028785953883</v>
+        <v>1.574716754767451</v>
       </c>
       <c r="C18">
-        <v>0.6188992131601481</v>
+        <v>0.2813461973832716</v>
       </c>
       <c r="D18">
-        <v>0.2855281479916556</v>
+        <v>0.1013708638482171</v>
       </c>
       <c r="E18">
-        <v>0.03854518695782305</v>
+        <v>0.1020023516595828</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.000785065407443313</v>
+        <v>0.002461487257214697</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1203,16 +1203,16 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.1954652094488978</v>
+        <v>0.1996497431811122</v>
       </c>
       <c r="M18">
-        <v>0.6174090204327598</v>
+        <v>0.3122150095606671</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>3.277298293017424</v>
+        <v>4.251185636258953</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.742530933424973</v>
+        <v>1.565338107191792</v>
       </c>
       <c r="C19">
-        <v>0.614746587799317</v>
+        <v>0.2799899409155273</v>
       </c>
       <c r="D19">
-        <v>0.2829085755512608</v>
+        <v>0.1006829990001279</v>
       </c>
       <c r="E19">
-        <v>0.03867945810040951</v>
+        <v>0.1020735415395126</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.0007855520283310462</v>
+        <v>0.002461775592536295</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1250,16 +1250,16 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.1940561904045666</v>
+        <v>0.1993700545586705</v>
       </c>
       <c r="M19">
-        <v>0.6119848727474277</v>
+        <v>0.3107655063003847</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>3.260021256262149</v>
+        <v>4.250219831278088</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.893490400480573</v>
+        <v>1.607563806771452</v>
       </c>
       <c r="C20">
-        <v>0.633447775991101</v>
+        <v>0.2860886063356531</v>
       </c>
       <c r="D20">
-        <v>0.2947264093294848</v>
+        <v>0.1037812110834579</v>
       </c>
       <c r="E20">
-        <v>0.03807877701109141</v>
+        <v>0.1017552946495912</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.0007833677276248468</v>
+        <v>0.002460486000435309</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.2004185411209818</v>
+        <v>0.2006350619531929</v>
       </c>
       <c r="M20">
-        <v>0.6364360091752772</v>
+        <v>0.3172948351417659</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>3.338541454481685</v>
+        <v>4.25477121957627</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.404841539042764</v>
+        <v>1.749795194819967</v>
       </c>
       <c r="C21">
-        <v>0.6965622655150412</v>
+        <v>0.3064973777497073</v>
       </c>
       <c r="D21">
-        <v>0.3349929729709373</v>
+        <v>0.1142390608936807</v>
       </c>
       <c r="E21">
-        <v>0.03612354208495239</v>
+        <v>0.1007230127748369</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.0007761210749983504</v>
+        <v>0.002456291870506337</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.222198421531985</v>
+        <v>0.2049968384000067</v>
       </c>
       <c r="M21">
-        <v>0.7193878588189975</v>
+        <v>0.3393439454461102</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>3.616682883889894</v>
+        <v>4.273661868804425</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.742616017005048</v>
+        <v>1.8430140796508</v>
       </c>
       <c r="C22">
-        <v>0.7380691131917274</v>
+        <v>0.3197737854236777</v>
       </c>
       <c r="D22">
-        <v>0.3617841632798644</v>
+        <v>0.1211101782462407</v>
       </c>
       <c r="E22">
-        <v>0.03489359826545491</v>
+        <v>0.1000758768224305</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.0007714476524974492</v>
+        <v>0.002453653702398921</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.2367655121765324</v>
+        <v>0.2079305355896679</v>
       </c>
       <c r="M22">
-        <v>0.774282957345136</v>
+        <v>0.3538366788954121</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>3.81019341763988</v>
+        <v>4.288700174379187</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.561979393499769</v>
+        <v>1.793237709069444</v>
       </c>
       <c r="C23">
-        <v>0.7158892569710247</v>
+        <v>0.312693635451609</v>
       </c>
       <c r="D23">
-        <v>0.3474379240153951</v>
+        <v>0.1174395906385683</v>
       </c>
       <c r="E23">
-        <v>0.0355455927032754</v>
+        <v>0.1004187502489493</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.0007739366209254733</v>
+        <v>0.002455052352544683</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1438,16 +1438,16 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.2289581785080657</v>
+        <v>0.2063571755994502</v>
       </c>
       <c r="M23">
-        <v>0.744916311201905</v>
+        <v>0.3460941428186715</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>3.70576897703171</v>
+        <v>4.280426965737092</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.885185998436839</v>
+        <v>1.605243610371758</v>
       </c>
       <c r="C24">
-        <v>0.6324198555790872</v>
+        <v>0.2857540027114283</v>
       </c>
       <c r="D24">
-        <v>0.294075461149319</v>
+        <v>0.1036108912651201</v>
       </c>
       <c r="E24">
-        <v>0.03811152905399262</v>
+        <v>0.1017726319980391</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.0007834873169321157</v>
+        <v>0.002460556295506987</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1485,16 +1485,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.2000677121388463</v>
+        <v>0.2005651739806638</v>
       </c>
       <c r="M24">
-        <v>0.635090469419211</v>
+        <v>0.3169358544614695</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>3.334178162299537</v>
+        <v>4.254507766628137</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.16747174939627</v>
+        <v>1.403620110851762</v>
       </c>
       <c r="C25">
-        <v>0.5431892307083217</v>
+        <v>0.2564349597737987</v>
       </c>
       <c r="D25">
-        <v>0.2381953742585807</v>
+        <v>0.08884813298874406</v>
       </c>
       <c r="E25">
-        <v>0.04107883642650179</v>
+        <v>0.1033514610825135</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.0007940967684923734</v>
+        <v>0.002466938103495412</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1532,16 +1532,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.1701315117679911</v>
+        <v>0.1946746217787236</v>
       </c>
       <c r="M25">
-        <v>0.5190149090663354</v>
+        <v>0.2858420416216987</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>2.977121968290788</v>
+        <v>4.23804258059198</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_246/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_246/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.256161925124957</v>
+        <v>2.646505408712812</v>
       </c>
       <c r="C2">
-        <v>0.2346248611648036</v>
+        <v>0.477871348636512</v>
       </c>
       <c r="D2">
-        <v>0.07810553557496291</v>
+        <v>0.198132997501105</v>
       </c>
       <c r="E2">
-        <v>0.104616351433313</v>
+        <v>0.04342941327920347</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.002472023795564883</v>
+        <v>0.0008022125293683539</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -451,16 +451,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.1906439604913075</v>
+        <v>0.1489404377763677</v>
       </c>
       <c r="M2">
-        <v>0.2632552252174563</v>
+        <v>0.4350571576929383</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>4.235721211673194</v>
+        <v>2.745308230948524</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.156852820408346</v>
+        <v>2.296742773409562</v>
       </c>
       <c r="C3">
-        <v>0.2197061655329833</v>
+        <v>0.4337085850341396</v>
       </c>
       <c r="D3">
-        <v>0.07090213355218111</v>
+        <v>0.1714964433383415</v>
       </c>
       <c r="E3">
-        <v>0.1055377259485465</v>
+        <v>0.04512315401205647</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.002475713788156935</v>
+        <v>0.0008079200493852346</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -498,16 +498,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.1881033970932435</v>
+        <v>0.1350192725424364</v>
       </c>
       <c r="M3">
-        <v>0.248139918629434</v>
+        <v>0.3788581609228032</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>4.240221910131282</v>
+        <v>2.604701317611358</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.096187617494081</v>
+        <v>2.083211832537756</v>
       </c>
       <c r="C4">
-        <v>0.2104786647053061</v>
+        <v>0.4066044275981255</v>
       </c>
       <c r="D4">
-        <v>0.06651650428111111</v>
+        <v>0.1553470789918663</v>
       </c>
       <c r="E4">
-        <v>0.1061351793882015</v>
+        <v>0.04621197426785484</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.002478100188064472</v>
+        <v>0.0008115321206349696</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -545,16 +545,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.186637737513216</v>
+        <v>0.1266617605186653</v>
       </c>
       <c r="M4">
-        <v>0.2389541189392261</v>
+        <v>0.3446257278180767</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>4.245968564097893</v>
+        <v>2.52563892049784</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.071545227969978</v>
+        <v>1.996450033289193</v>
       </c>
       <c r="C5">
-        <v>0.2067016074725814</v>
+        <v>0.3955570912935968</v>
       </c>
       <c r="D5">
-        <v>0.06473863993083739</v>
+        <v>0.1488112252747129</v>
       </c>
       <c r="E5">
-        <v>0.1063866352511141</v>
+        <v>0.04666784086855991</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.002479103119353699</v>
+        <v>0.0008130318648142398</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -592,16 +592,16 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.1860641951582522</v>
+        <v>0.123300134527291</v>
       </c>
       <c r="M5">
-        <v>0.2352348752442737</v>
+        <v>0.3307350216271914</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>4.249058840838387</v>
+        <v>2.495129215713831</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.067458188885723</v>
+        <v>1.982057118619878</v>
       </c>
       <c r="C6">
-        <v>0.2060734216453</v>
+        <v>0.3937224146511369</v>
       </c>
       <c r="D6">
-        <v>0.06444398774344506</v>
+        <v>0.1477284944281507</v>
       </c>
       <c r="E6">
-        <v>0.106428872130132</v>
+        <v>0.0467442683570457</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.002479271497478326</v>
+        <v>0.0008132825956213177</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -639,16 +639,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.185970392597568</v>
+        <v>0.1227445009981452</v>
       </c>
       <c r="M6">
-        <v>0.2346187540856306</v>
+        <v>0.3284317928307914</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>4.249617135365639</v>
+        <v>2.490162961931247</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.095854959739199</v>
+        <v>2.082040773860342</v>
       </c>
       <c r="C7">
-        <v>0.2104277936965104</v>
+        <v>0.4064554547036039</v>
       </c>
       <c r="D7">
-        <v>0.06649248974386524</v>
+        <v>0.1552587597649193</v>
       </c>
       <c r="E7">
-        <v>0.1061385382490986</v>
+        <v>0.04621807315128679</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.002478113590480446</v>
+        <v>0.0008115522332437</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -686,16 +686,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.1866299064226666</v>
+        <v>0.1266162504830177</v>
       </c>
       <c r="M7">
-        <v>0.2389038623750466</v>
+        <v>0.3444381650657746</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>4.246007212382636</v>
+        <v>2.525220689270753</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.221856145922629</v>
+        <v>2.525619166239721</v>
       </c>
       <c r="C8">
-        <v>0.2294949682484173</v>
+        <v>0.4626382880883568</v>
       </c>
       <c r="D8">
-        <v>0.07561402404675732</v>
+        <v>0.1889019631881723</v>
       </c>
       <c r="E8">
-        <v>0.1049274633929027</v>
+        <v>0.04400320007281122</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.002473271105165196</v>
+        <v>0.0008041585973276866</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -733,16 +733,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.1897484243759493</v>
+        <v>0.1440986616036142</v>
       </c>
       <c r="M8">
-        <v>0.2580238163529103</v>
+        <v>0.4156168764281816</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>4.236652863790624</v>
+        <v>2.695243613100359</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.471382804183861</v>
+        <v>3.407877695135539</v>
       </c>
       <c r="C9">
-        <v>0.2663458279110671</v>
+        <v>0.5731680346749499</v>
       </c>
       <c r="D9">
-        <v>0.09380091705030225</v>
+        <v>0.2568277967238117</v>
       </c>
       <c r="E9">
-        <v>0.1028037576126187</v>
+        <v>0.04005317126613472</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.002464728573101022</v>
+        <v>0.0007904782241975048</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -780,16 +780,16 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.1966112207210813</v>
+        <v>0.1800705579527175</v>
       </c>
       <c r="M9">
-        <v>0.2962682912531349</v>
+        <v>0.5578465899184621</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>4.242060850651342</v>
+        <v>3.092156674170838</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.656178493525317</v>
+        <v>4.067756332841213</v>
       </c>
       <c r="C10">
-        <v>0.2930865997379897</v>
+        <v>0.6549962729656329</v>
       </c>
       <c r="D10">
-        <v>0.1073519963765079</v>
+        <v>0.3084086758380522</v>
       </c>
       <c r="E10">
-        <v>0.1013958593575999</v>
+        <v>0.03739907689678168</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.00245902757286694</v>
+        <v>0.0007808728325670657</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -827,16 +827,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.2021091352093833</v>
+        <v>0.2078023576152077</v>
       </c>
       <c r="M10">
-        <v>0.3248218966814918</v>
+        <v>0.6646839814225061</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>4.260634548465845</v>
+        <v>3.431258741272302</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.740563399697692</v>
+        <v>4.371508681707894</v>
       </c>
       <c r="C11">
-        <v>0.3051785082445804</v>
+        <v>0.6924585501238312</v>
       </c>
       <c r="D11">
-        <v>0.1135592973275266</v>
+        <v>0.3323573197159675</v>
       </c>
       <c r="E11">
-        <v>0.1007882982870888</v>
+        <v>0.03624746684769886</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.002456557635080697</v>
+        <v>0.0007765868631209274</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.2047093603541299</v>
+        <v>0.22076841724774</v>
       </c>
       <c r="M11">
-        <v>0.3379103786546906</v>
+        <v>0.713974829373079</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>4.272281078242713</v>
+        <v>3.597998785994434</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.772563234300208</v>
+        <v>4.487138322074941</v>
       </c>
       <c r="C12">
-        <v>0.3097468440111015</v>
+        <v>0.706688095203873</v>
       </c>
       <c r="D12">
-        <v>0.1159160915609192</v>
+        <v>0.341506594982917</v>
       </c>
       <c r="E12">
-        <v>0.1005629501795818</v>
+        <v>0.0358195809402897</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.002455639990721154</v>
+        <v>0.0007749747193034122</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -921,16 +921,16 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.2057082544896787</v>
+        <v>0.2257349009292682</v>
       </c>
       <c r="M12">
-        <v>0.3428808442054319</v>
+        <v>0.7327555970617112</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>4.277153087318936</v>
+        <v>3.663133546294716</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.76566950674794</v>
+        <v>4.462206934159155</v>
       </c>
       <c r="C13">
-        <v>0.3087634455687294</v>
+        <v>0.7036214223258241</v>
       </c>
       <c r="D13">
-        <v>0.1154082359359165</v>
+        <v>0.3395323739638201</v>
       </c>
       <c r="E13">
-        <v>0.1006112730488561</v>
+        <v>0.03591136583274368</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.002455836837462866</v>
+        <v>0.0007753214597846823</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -968,16 +968,16 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.2054924914979779</v>
+        <v>0.224662663105363</v>
       </c>
       <c r="M13">
-        <v>0.3418097387408849</v>
+        <v>0.7287054161425672</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>4.276083246605424</v>
+        <v>3.649013548766334</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.743195146949063</v>
+        <v>4.381008914309291</v>
       </c>
       <c r="C14">
-        <v>0.3055545615149811</v>
+        <v>0.6936282979273187</v>
       </c>
       <c r="D14">
-        <v>0.1137530671067992</v>
+        <v>0.3331083583165508</v>
       </c>
       <c r="E14">
-        <v>0.1007696641748427</v>
+        <v>0.0362120988791742</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.002456481786339292</v>
+        <v>0.0007764540203942189</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1015,16 +1015,16 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.2047912545853734</v>
+        <v>0.2211758432452342</v>
       </c>
       <c r="M14">
-        <v>0.3383190192123848</v>
+        <v>0.7155175235343663</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>4.27267263655807</v>
+        <v>3.603316290262399</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.729434797671217</v>
+        <v>4.331354477995546</v>
       </c>
       <c r="C15">
-        <v>0.3035876410520757</v>
+        <v>0.687513159330706</v>
       </c>
       <c r="D15">
-        <v>0.1127400408327759</v>
+        <v>0.3291842776145018</v>
       </c>
       <c r="E15">
-        <v>0.1008672980097693</v>
+        <v>0.03639738071969167</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.002456879134488276</v>
+        <v>0.0007771491245615828</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.2043635813341496</v>
+        <v>0.2190476160652395</v>
       </c>
       <c r="M15">
-        <v>0.3361826902927447</v>
+        <v>0.7074550928719461</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>4.270643727300069</v>
+        <v>3.575591310912898</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.650670105429015</v>
+        <v>4.047984893241619</v>
       </c>
       <c r="C16">
-        <v>0.2922948897420383</v>
+        <v>0.6525535783479484</v>
       </c>
       <c r="D16">
-        <v>0.1069472022103355</v>
+        <v>0.3068542210690453</v>
       </c>
       <c r="E16">
-        <v>0.1014362261635195</v>
+        <v>0.03747547483750224</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.002459191466179742</v>
+        <v>0.0007811545158508322</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1109,16 +1109,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.2019411988265176</v>
+        <v>0.2069625599516058</v>
       </c>
       <c r="M16">
-        <v>0.3239685199628966</v>
+        <v>0.661477940417889</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>4.259937924811425</v>
+        <v>3.420629627207063</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.602431886155216</v>
+        <v>3.875123842282562</v>
       </c>
       <c r="C17">
-        <v>0.2853484371215416</v>
+        <v>0.6311742293071347</v>
       </c>
       <c r="D17">
-        <v>0.1034045020651888</v>
+        <v>0.2932868601016878</v>
       </c>
       <c r="E17">
-        <v>0.1017936651123303</v>
+        <v>0.03815125850698375</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.0024606415690749</v>
+        <v>0.0007836323065289615</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1156,16 +1156,16 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.2004805384645039</v>
+        <v>0.199642753070691</v>
       </c>
       <c r="M17">
-        <v>0.316500856853331</v>
+        <v>0.6334601970287252</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>4.25419055009317</v>
+        <v>3.328898095119854</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.574716754767451</v>
+        <v>3.776028785953827</v>
       </c>
       <c r="C18">
-        <v>0.2813461973832716</v>
+        <v>0.6188992131602902</v>
       </c>
       <c r="D18">
-        <v>0.1013708638482171</v>
+        <v>0.2855281479914282</v>
       </c>
       <c r="E18">
-        <v>0.1020023516595828</v>
+        <v>0.03854518695783815</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.002461487257214697</v>
+        <v>0.0007850654074729196</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1203,16 +1203,16 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.1996497431811122</v>
+        <v>0.1954652094488694</v>
       </c>
       <c r="M18">
-        <v>0.3122150095606671</v>
+        <v>0.6174090204327669</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>4.251185636258953</v>
+        <v>3.27729829301731</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.565338107191792</v>
+        <v>3.742530933424973</v>
       </c>
       <c r="C19">
-        <v>0.2799899409155273</v>
+        <v>0.6147465877995728</v>
       </c>
       <c r="D19">
-        <v>0.1006829990001279</v>
+        <v>0.2829085755513034</v>
       </c>
       <c r="E19">
-        <v>0.1020735415395126</v>
+        <v>0.03867945810041151</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.002461775592536295</v>
+        <v>0.0007855520283031858</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1250,16 +1250,16 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.1993700545586705</v>
+        <v>0.1940561904045239</v>
       </c>
       <c r="M19">
-        <v>0.3107655063003847</v>
+        <v>0.6119848727474277</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>4.250219831278088</v>
+        <v>3.260021256262064</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.607563806771452</v>
+        <v>3.893490400480459</v>
       </c>
       <c r="C20">
-        <v>0.2860886063356531</v>
+        <v>0.6334477759909021</v>
       </c>
       <c r="D20">
-        <v>0.1037812110834579</v>
+        <v>0.2947264093294848</v>
       </c>
       <c r="E20">
-        <v>0.1017552946495912</v>
+        <v>0.03807877701109252</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.002460486000435309</v>
+        <v>0.0007833677276611389</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.2006350619531929</v>
+        <v>0.2004185411209818</v>
       </c>
       <c r="M20">
-        <v>0.3172948351417659</v>
+        <v>0.6364360091752701</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>4.25477121957627</v>
+        <v>3.338541454481629</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.749795194819967</v>
+        <v>4.404841539042764</v>
       </c>
       <c r="C21">
-        <v>0.3064973777497073</v>
+        <v>0.6965622655150696</v>
       </c>
       <c r="D21">
-        <v>0.1142390608936807</v>
+        <v>0.3349929729709373</v>
       </c>
       <c r="E21">
-        <v>0.1007230127748369</v>
+        <v>0.03612354208495439</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.002456291870506337</v>
+        <v>0.0007761210749705586</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.2049968384000067</v>
+        <v>0.2221984215320276</v>
       </c>
       <c r="M21">
-        <v>0.3393439454461102</v>
+        <v>0.7193878588189904</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>4.273661868804425</v>
+        <v>3.616682883889951</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.8430140796508</v>
+        <v>4.742616017004934</v>
       </c>
       <c r="C22">
-        <v>0.3197737854236777</v>
+        <v>0.738069113191699</v>
       </c>
       <c r="D22">
-        <v>0.1211101782462407</v>
+        <v>0.3617841632796654</v>
       </c>
       <c r="E22">
-        <v>0.1000758768224305</v>
+        <v>0.03489359826540039</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.002453653702398921</v>
+        <v>0.000771447652496704</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.2079305355896679</v>
+        <v>0.2367655121763761</v>
       </c>
       <c r="M22">
-        <v>0.3538366788954121</v>
+        <v>0.7742829573451502</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>4.288700174379187</v>
+        <v>3.81019341763988</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.793237709069444</v>
+        <v>4.561979393499769</v>
       </c>
       <c r="C23">
-        <v>0.312693635451609</v>
+        <v>0.7158892569712236</v>
       </c>
       <c r="D23">
-        <v>0.1174395906385683</v>
+        <v>0.3474379240153667</v>
       </c>
       <c r="E23">
-        <v>0.1004187502489493</v>
+        <v>0.03554559270327307</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.002455052352544683</v>
+        <v>0.0007739366209533661</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1438,16 +1438,16 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.2063571755994502</v>
+        <v>0.2289581785081509</v>
       </c>
       <c r="M23">
-        <v>0.3460941428186715</v>
+        <v>0.744916311201905</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>4.280426965737092</v>
+        <v>3.70576897703171</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.605243610371758</v>
+        <v>3.885185998436782</v>
       </c>
       <c r="C24">
-        <v>0.2857540027114283</v>
+        <v>0.6324198555790872</v>
       </c>
       <c r="D24">
-        <v>0.1036108912651201</v>
+        <v>0.2940754611493048</v>
       </c>
       <c r="E24">
-        <v>0.1017726319980391</v>
+        <v>0.03811152905399418</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.002460556295506987</v>
+        <v>0.0007834873169618696</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1485,16 +1485,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.2005651739806638</v>
+        <v>0.2000677121388605</v>
       </c>
       <c r="M24">
-        <v>0.3169358544614695</v>
+        <v>0.6350904694191897</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>4.254507766628137</v>
+        <v>3.334178162299537</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.403620110851762</v>
+        <v>3.167471749396213</v>
       </c>
       <c r="C25">
-        <v>0.2564349597737987</v>
+        <v>0.5431892307082364</v>
       </c>
       <c r="D25">
-        <v>0.08884813298874406</v>
+        <v>0.2381953742583818</v>
       </c>
       <c r="E25">
-        <v>0.1033514610825135</v>
+        <v>0.04107883642653043</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.002466938103495412</v>
+        <v>0.000794096768462642</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1532,16 +1532,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.1946746217787236</v>
+        <v>0.1701315117679485</v>
       </c>
       <c r="M25">
-        <v>0.2858420416216987</v>
+        <v>0.5190149090663283</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>4.23804258059198</v>
+        <v>2.97712196829076</v>
       </c>
     </row>
   </sheetData>
